--- a/data/pca/factorExposure/factorExposure_2018-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.00835347879514426</v>
+        <v>0.01709556682763452</v>
       </c>
       <c r="C2">
-        <v>-0.02680131809878162</v>
+        <v>-0.0184485231675078</v>
       </c>
       <c r="D2">
-        <v>0.01989074903720545</v>
+        <v>-0.02841396870046472</v>
       </c>
       <c r="E2">
-        <v>0.01220917110695763</v>
+        <v>0.01854629929891177</v>
       </c>
       <c r="F2">
-        <v>-0.1244209485737658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.004236528803219251</v>
+      </c>
+      <c r="G2">
+        <v>-0.04632881618271558</v>
+      </c>
+      <c r="H2">
+        <v>-0.04847625059666481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07337138265655685</v>
+        <v>0.07317669669929094</v>
       </c>
       <c r="C3">
-        <v>-0.05457483576908555</v>
+        <v>0.01108715036735274</v>
       </c>
       <c r="D3">
-        <v>0.06931550617342085</v>
+        <v>-0.07224868169240534</v>
       </c>
       <c r="E3">
-        <v>-0.06943200010663413</v>
+        <v>0.01077256658079466</v>
       </c>
       <c r="F3">
-        <v>-0.4120652976975662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01944322525254301</v>
+      </c>
+      <c r="G3">
+        <v>-0.1723165900499431</v>
+      </c>
+      <c r="H3">
+        <v>-0.1460984002221439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04260570123495554</v>
+        <v>0.04059281089286938</v>
       </c>
       <c r="C4">
-        <v>-0.01702244214324992</v>
+        <v>-0.004893182590014402</v>
       </c>
       <c r="D4">
-        <v>0.01299006785965618</v>
+        <v>-0.06175705277886526</v>
       </c>
       <c r="E4">
-        <v>0.04526171189858529</v>
+        <v>-0.01753276797283325</v>
       </c>
       <c r="F4">
-        <v>-0.08158428461537537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04341904588717205</v>
+      </c>
+      <c r="G4">
+        <v>-0.04313169906249694</v>
+      </c>
+      <c r="H4">
+        <v>-0.05870565644603203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03174571871032341</v>
+        <v>0.0250153408614655</v>
       </c>
       <c r="C6">
-        <v>-0.01739053828993098</v>
+        <v>-0.001070547680209804</v>
       </c>
       <c r="D6">
-        <v>0.01363816986662554</v>
+        <v>-0.06176604682959052</v>
       </c>
       <c r="E6">
-        <v>0.02759514783962265</v>
+        <v>-0.002738207496274663</v>
       </c>
       <c r="F6">
-        <v>-0.01501486513694023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02983273629251195</v>
+      </c>
+      <c r="G6">
+        <v>-0.01605157645221695</v>
+      </c>
+      <c r="H6">
+        <v>-0.06637709254193691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03973401490817601</v>
+        <v>0.0160836968960761</v>
       </c>
       <c r="C7">
-        <v>0.02505097953145122</v>
+        <v>-0.003269367574452702</v>
       </c>
       <c r="D7">
-        <v>0.02354566178460443</v>
+        <v>-0.0332815536828651</v>
       </c>
       <c r="E7">
-        <v>0.03387166198114405</v>
+        <v>-0.04206805727490752</v>
       </c>
       <c r="F7">
-        <v>-0.05929501346884349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.001851310640702989</v>
+      </c>
+      <c r="G7">
+        <v>-0.02897475311751517</v>
+      </c>
+      <c r="H7">
+        <v>-0.04470959210482024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01449102899276406</v>
+        <v>0.003669235621005769</v>
       </c>
       <c r="C8">
-        <v>-0.008103170582519652</v>
+        <v>0.001518867114219778</v>
       </c>
       <c r="D8">
-        <v>0.02438212418882471</v>
+        <v>-0.0140312375836692</v>
       </c>
       <c r="E8">
-        <v>0.03494448264236592</v>
+        <v>-0.004922203095362172</v>
       </c>
       <c r="F8">
-        <v>-0.09787498793748153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01725105887695977</v>
+      </c>
+      <c r="G8">
+        <v>-0.04250679615789264</v>
+      </c>
+      <c r="H8">
+        <v>-0.04409415386248165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03285328180932182</v>
+        <v>0.03083652738041117</v>
       </c>
       <c r="C9">
-        <v>-0.01306535827811999</v>
+        <v>-0.00157458403943788</v>
       </c>
       <c r="D9">
-        <v>0.01863719096089309</v>
+        <v>-0.04585732243874086</v>
       </c>
       <c r="E9">
-        <v>0.03476753580826587</v>
+        <v>-0.007294575432497577</v>
       </c>
       <c r="F9">
-        <v>-0.09601684521188611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01966918143778199</v>
+      </c>
+      <c r="G9">
+        <v>-0.04750089575555762</v>
+      </c>
+      <c r="H9">
+        <v>-0.05693478247518603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0331862258988985</v>
+        <v>0.1214643700263296</v>
       </c>
       <c r="C10">
-        <v>-0.007820140087007892</v>
+        <v>0.005363616189165868</v>
       </c>
       <c r="D10">
-        <v>-0.09999968359054448</v>
+        <v>0.1603982945698045</v>
       </c>
       <c r="E10">
-        <v>-0.1276592795038828</v>
+        <v>-0.0004292105891172724</v>
       </c>
       <c r="F10">
-        <v>-0.05969583669434785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03573194024248744</v>
+      </c>
+      <c r="G10">
+        <v>-0.03218577265125169</v>
+      </c>
+      <c r="H10">
+        <v>-0.002278170910123063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02605978721905006</v>
+        <v>0.01721556604661856</v>
       </c>
       <c r="C11">
-        <v>-0.02321832848757182</v>
+        <v>0.009869449115382668</v>
       </c>
       <c r="D11">
-        <v>0.02347658354946396</v>
+        <v>-0.04955673651465522</v>
       </c>
       <c r="E11">
-        <v>0.03472724348816864</v>
+        <v>0.002199286435685764</v>
       </c>
       <c r="F11">
-        <v>-0.05287958684057818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01138906737491333</v>
+      </c>
+      <c r="G11">
+        <v>-0.02828232465972592</v>
+      </c>
+      <c r="H11">
+        <v>-0.05027235665568165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03522620487895942</v>
+        <v>0.02211875252127144</v>
       </c>
       <c r="C12">
-        <v>-0.02288103927651666</v>
+        <v>0.006332074798229543</v>
       </c>
       <c r="D12">
-        <v>0.01709867772231991</v>
+        <v>-0.04810517173424758</v>
       </c>
       <c r="E12">
-        <v>0.04185152130198094</v>
+        <v>-0.00871720175792624</v>
       </c>
       <c r="F12">
-        <v>-0.0230134947615138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01442520526386263</v>
+      </c>
+      <c r="G12">
+        <v>-0.008000437028997132</v>
+      </c>
+      <c r="H12">
+        <v>-0.02372627090295699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008137459908919125</v>
+        <v>0.0239263904277844</v>
       </c>
       <c r="C13">
-        <v>-0.0229400901675097</v>
+        <v>-0.01417172768924969</v>
       </c>
       <c r="D13">
-        <v>0.002522970465362303</v>
+        <v>-0.02366977997257601</v>
       </c>
       <c r="E13">
-        <v>0.01324351822265642</v>
+        <v>0.01290830344607726</v>
       </c>
       <c r="F13">
-        <v>-0.09121858779759184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02065763177542099</v>
+      </c>
+      <c r="G13">
+        <v>-0.06421366164706849</v>
+      </c>
+      <c r="H13">
+        <v>-0.07689020985975932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02069208973759001</v>
+        <v>0.01575769733555163</v>
       </c>
       <c r="C14">
-        <v>0.0002022890817268082</v>
+        <v>-0.001224024238199494</v>
       </c>
       <c r="D14">
-        <v>0.009834025889111541</v>
+        <v>-0.01560803307809711</v>
       </c>
       <c r="E14">
-        <v>0.02975794507723156</v>
+        <v>-0.01399850353520866</v>
       </c>
       <c r="F14">
-        <v>-0.06245936025828687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01391595755671759</v>
+      </c>
+      <c r="G14">
+        <v>-0.04175328887499081</v>
+      </c>
+      <c r="H14">
+        <v>-0.01664424053716769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02591377667223611</v>
+        <v>0.02033103780984405</v>
       </c>
       <c r="C16">
-        <v>-0.02231842423450803</v>
+        <v>0.009652693816226087</v>
       </c>
       <c r="D16">
-        <v>0.02398733521265729</v>
+        <v>-0.04063608183206639</v>
       </c>
       <c r="E16">
-        <v>0.04075311475154102</v>
+        <v>-0.001560710305916608</v>
       </c>
       <c r="F16">
-        <v>-0.04909879126035252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01486684774233931</v>
+      </c>
+      <c r="G16">
+        <v>-0.02273144119395226</v>
+      </c>
+      <c r="H16">
+        <v>-0.03881199155018353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02710595625815239</v>
+        <v>0.02349670484150241</v>
       </c>
       <c r="C19">
-        <v>-0.02272635745366492</v>
+        <v>-0.001390278200228802</v>
       </c>
       <c r="D19">
-        <v>0.02463754208238177</v>
+        <v>-0.04423606116515481</v>
       </c>
       <c r="E19">
-        <v>0.03315751505741007</v>
+        <v>-0.005277626568850346</v>
       </c>
       <c r="F19">
-        <v>-0.09981144492891045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02435630237794756</v>
+      </c>
+      <c r="G19">
+        <v>-0.05628795246193612</v>
+      </c>
+      <c r="H19">
+        <v>-0.06645305764784469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0009146160515010967</v>
+        <v>0.007773908094631563</v>
       </c>
       <c r="C20">
-        <v>0.006932552015871687</v>
+        <v>-0.005643655108142817</v>
       </c>
       <c r="D20">
-        <v>0.009233369913772568</v>
+        <v>-0.02253013843345116</v>
       </c>
       <c r="E20">
-        <v>0.02185406180365387</v>
+        <v>-0.00375949311887713</v>
       </c>
       <c r="F20">
-        <v>-0.08249594971194862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01346215168166383</v>
+      </c>
+      <c r="G20">
+        <v>-0.05672694904933914</v>
+      </c>
+      <c r="H20">
+        <v>-0.03115327375966259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0138236782550443</v>
+        <v>0.01304182292880996</v>
       </c>
       <c r="C21">
-        <v>0.01895002471954403</v>
+        <v>-0.007142743384790335</v>
       </c>
       <c r="D21">
-        <v>0.03329746518064045</v>
+        <v>-0.02563619956461174</v>
       </c>
       <c r="E21">
-        <v>0.02178527343297974</v>
+        <v>-0.01922855342482866</v>
       </c>
       <c r="F21">
-        <v>-0.04240113689196611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.006977600019913642</v>
+      </c>
+      <c r="G21">
+        <v>-0.05041852265847396</v>
+      </c>
+      <c r="H21">
+        <v>-0.04648859980684546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02385870083467786</v>
+        <v>0.01536840194805501</v>
       </c>
       <c r="C24">
-        <v>-0.0203904966306382</v>
+        <v>0.004215934833979506</v>
       </c>
       <c r="D24">
-        <v>0.009167908338031189</v>
+        <v>-0.04356596457054789</v>
       </c>
       <c r="E24">
-        <v>0.02555945868639316</v>
+        <v>1.672041972320136e-05</v>
       </c>
       <c r="F24">
-        <v>-0.04951518931188648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01016867408579558</v>
+      </c>
+      <c r="G24">
+        <v>-0.01789651143022586</v>
+      </c>
+      <c r="H24">
+        <v>-0.04689438391525366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02725376525273685</v>
+        <v>0.02729661945976058</v>
       </c>
       <c r="C25">
-        <v>-0.01846067048993555</v>
+        <v>0.001893384509724168</v>
       </c>
       <c r="D25">
-        <v>0.02505223731854582</v>
+        <v>-0.04640218600588602</v>
       </c>
       <c r="E25">
-        <v>0.0309650475775118</v>
+        <v>-0.005472382736106151</v>
       </c>
       <c r="F25">
-        <v>-0.05299374433257188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01771815650884061</v>
+      </c>
+      <c r="G25">
+        <v>-0.02309707478206093</v>
+      </c>
+      <c r="H25">
+        <v>-0.04449429539349949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01466255842302901</v>
+        <v>0.01464915226657042</v>
       </c>
       <c r="C26">
-        <v>-0.01326592794057484</v>
+        <v>-0.01911234245398784</v>
       </c>
       <c r="D26">
-        <v>0.02172742174767306</v>
+        <v>-0.009783454146692272</v>
       </c>
       <c r="E26">
-        <v>0.006962576848245003</v>
+        <v>0.0003925020045606888</v>
       </c>
       <c r="F26">
-        <v>-0.06793409282713019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002242487319007227</v>
+      </c>
+      <c r="G26">
+        <v>-0.03047609884578243</v>
+      </c>
+      <c r="H26">
+        <v>-0.02506473604362745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03950505509685098</v>
+        <v>0.01812793840377505</v>
       </c>
       <c r="C27">
-        <v>-0.0283721075808503</v>
+        <v>0.006622644356983069</v>
       </c>
       <c r="D27">
-        <v>-0.01554024333948442</v>
+        <v>-0.0144558829864638</v>
       </c>
       <c r="E27">
-        <v>0.03528458749167979</v>
+        <v>-0.004163596812846309</v>
       </c>
       <c r="F27">
-        <v>-0.03289919509775179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01191890557628388</v>
+      </c>
+      <c r="G27">
+        <v>-0.006550671770251268</v>
+      </c>
+      <c r="H27">
+        <v>0.00033787544068865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05728077833332251</v>
+        <v>0.170261694846325</v>
       </c>
       <c r="C28">
-        <v>-0.01367283364854939</v>
+        <v>-0.003404407780860896</v>
       </c>
       <c r="D28">
-        <v>-0.136062139850805</v>
+        <v>0.2052195196171846</v>
       </c>
       <c r="E28">
-        <v>-0.1665670920690963</v>
+        <v>-0.01077521096728159</v>
       </c>
       <c r="F28">
-        <v>-0.04883924617432736</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0307232516381145</v>
+      </c>
+      <c r="G28">
+        <v>-0.01883992962634333</v>
+      </c>
+      <c r="H28">
+        <v>0.005168815346933147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02469975789200351</v>
+        <v>0.02038152808641807</v>
       </c>
       <c r="C29">
-        <v>-0.002226833798072691</v>
+        <v>0.0003238665594600087</v>
       </c>
       <c r="D29">
-        <v>0.00966280786006388</v>
+        <v>-0.01626442272531679</v>
       </c>
       <c r="E29">
-        <v>0.03499534002223346</v>
+        <v>-0.01437769366883661</v>
       </c>
       <c r="F29">
-        <v>-0.05962088989738389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01528650600834716</v>
+      </c>
+      <c r="G29">
+        <v>-0.04054717605895801</v>
+      </c>
+      <c r="H29">
+        <v>-0.009350651118269411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04725301238139212</v>
+        <v>0.04371707511145517</v>
       </c>
       <c r="C30">
-        <v>-0.08085639017632844</v>
+        <v>-0.002830886965987346</v>
       </c>
       <c r="D30">
-        <v>0.0177207693697153</v>
+        <v>-0.0937208708895957</v>
       </c>
       <c r="E30">
-        <v>0.06205436244743361</v>
+        <v>0.0326525226609879</v>
       </c>
       <c r="F30">
-        <v>-0.1052712906871125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04721888490281213</v>
+      </c>
+      <c r="G30">
+        <v>-0.06302057567486941</v>
+      </c>
+      <c r="H30">
+        <v>-0.07780393241393416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04633587381059451</v>
+        <v>0.04791742755450219</v>
       </c>
       <c r="C31">
-        <v>-0.0430095700525325</v>
+        <v>0.009438028566225358</v>
       </c>
       <c r="D31">
-        <v>0.01223702395664778</v>
+        <v>-0.02939872850077683</v>
       </c>
       <c r="E31">
-        <v>0.02644036893637184</v>
+        <v>0.004900177516253317</v>
       </c>
       <c r="F31">
-        <v>-0.04983960086386964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.005466648876071606</v>
+      </c>
+      <c r="G31">
+        <v>-0.01984244157023271</v>
+      </c>
+      <c r="H31">
+        <v>-0.007576010611467609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02545698330282505</v>
+        <v>0.01244557159976446</v>
       </c>
       <c r="C32">
-        <v>0.008265087988934933</v>
+        <v>0.01348645340987735</v>
       </c>
       <c r="D32">
-        <v>0.03563289108001535</v>
+        <v>-0.0110569957432688</v>
       </c>
       <c r="E32">
-        <v>0.06295864198225187</v>
+        <v>-0.02991147371140628</v>
       </c>
       <c r="F32">
-        <v>-0.07568652262190399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03877198913050159</v>
+      </c>
+      <c r="G32">
+        <v>-0.03155682166302573</v>
+      </c>
+      <c r="H32">
+        <v>-0.0553851936777207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02692972082213778</v>
+        <v>0.02816155391322394</v>
       </c>
       <c r="C33">
-        <v>-0.04749057600947994</v>
+        <v>-0.0006347825792846251</v>
       </c>
       <c r="D33">
-        <v>0.04495153892495087</v>
+        <v>-0.04579707446605528</v>
       </c>
       <c r="E33">
-        <v>0.02633846085479864</v>
+        <v>0.02091441547741948</v>
       </c>
       <c r="F33">
-        <v>-0.08456089650599589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.001146959820621723</v>
+      </c>
+      <c r="G33">
+        <v>-0.05114705607604115</v>
+      </c>
+      <c r="H33">
+        <v>-0.05842841560066861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03011977944311614</v>
+        <v>0.0248044804547544</v>
       </c>
       <c r="C34">
-        <v>-0.01514735768161053</v>
+        <v>0.01780085246623424</v>
       </c>
       <c r="D34">
-        <v>0.02004255229963217</v>
+        <v>-0.04392814224427408</v>
       </c>
       <c r="E34">
-        <v>0.04593879874740769</v>
+        <v>-0.01182734084809565</v>
       </c>
       <c r="F34">
-        <v>-0.06073961471837177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01784873734222876</v>
+      </c>
+      <c r="G34">
+        <v>-0.01495722445480487</v>
+      </c>
+      <c r="H34">
+        <v>-0.03712221417495159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01641625057075338</v>
+        <v>0.01675729298257652</v>
       </c>
       <c r="C36">
-        <v>-0.0003044592127721791</v>
+        <v>-0.006490138026366402</v>
       </c>
       <c r="D36">
-        <v>0.01138825585653017</v>
+        <v>-0.006250185189093601</v>
       </c>
       <c r="E36">
-        <v>0.01891868898977975</v>
+        <v>-0.008962625077124475</v>
       </c>
       <c r="F36">
-        <v>-0.03683336793639778</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002305234359810996</v>
+      </c>
+      <c r="G36">
+        <v>-0.02208108753534233</v>
+      </c>
+      <c r="H36">
+        <v>-0.01882612301581056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00375505152439111</v>
+        <v>0.02567044177555703</v>
       </c>
       <c r="C38">
-        <v>-0.004657303145350967</v>
+        <v>0.0153712516061681</v>
       </c>
       <c r="D38">
-        <v>0.01462650385246891</v>
+        <v>-0.01542353501977609</v>
       </c>
       <c r="E38">
-        <v>-0.02279267197155426</v>
+        <v>0.001673622400200713</v>
       </c>
       <c r="F38">
-        <v>-0.04901162278553557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008792667459162944</v>
+      </c>
+      <c r="G38">
+        <v>-0.02644065136547181</v>
+      </c>
+      <c r="H38">
+        <v>-0.04497011689598782</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02459958253863637</v>
+        <v>0.01069422135850862</v>
       </c>
       <c r="C39">
-        <v>-0.0229269748106319</v>
+        <v>0.005932228250095106</v>
       </c>
       <c r="D39">
-        <v>0.0401970542369765</v>
+        <v>-0.08948817717556923</v>
       </c>
       <c r="E39">
-        <v>0.04945622455097908</v>
+        <v>0.008167488951308902</v>
       </c>
       <c r="F39">
-        <v>-0.06555304925638326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01699705489484958</v>
+      </c>
+      <c r="G39">
+        <v>-0.04193695162711796</v>
+      </c>
+      <c r="H39">
+        <v>-0.0767857802794769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01443096549910019</v>
+        <v>0.0273414304424844</v>
       </c>
       <c r="C40">
-        <v>-0.05279869770323459</v>
+        <v>0.000131674723244415</v>
       </c>
       <c r="D40">
-        <v>-6.508547577786907e-06</v>
+        <v>-0.0345337920423849</v>
       </c>
       <c r="E40">
-        <v>0.04161555823590597</v>
+        <v>0.02552093469094211</v>
       </c>
       <c r="F40">
-        <v>-0.09592078299616008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03471274965995268</v>
+      </c>
+      <c r="G40">
+        <v>-0.02381788819783724</v>
+      </c>
+      <c r="H40">
+        <v>-0.0719371926107293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002622392996293625</v>
+        <v>0.01292979512309058</v>
       </c>
       <c r="C41">
-        <v>-0.0005553770331135725</v>
+        <v>-0.002762498850051062</v>
       </c>
       <c r="D41">
-        <v>0.009701032259032785</v>
+        <v>0.01375341569868694</v>
       </c>
       <c r="E41">
-        <v>-0.000610831313914416</v>
+        <v>-0.001901386817951495</v>
       </c>
       <c r="F41">
-        <v>-0.01682719853244165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003473292810853237</v>
+      </c>
+      <c r="G41">
+        <v>-0.002154061579511814</v>
+      </c>
+      <c r="H41">
+        <v>0.0009881909361460699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2250922618174163</v>
+        <v>0.143136501617268</v>
       </c>
       <c r="C42">
-        <v>-0.2533039566362947</v>
+        <v>-0.0766188877989189</v>
       </c>
       <c r="D42">
-        <v>0.6368411715698237</v>
+        <v>-0.2410314141373864</v>
       </c>
       <c r="E42">
-        <v>-0.5800137695086682</v>
+        <v>0.2154996568597485</v>
       </c>
       <c r="F42">
-        <v>0.3023778550384483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8957793764107796</v>
+      </c>
+      <c r="G42">
+        <v>0.2134595432438965</v>
+      </c>
+      <c r="H42">
+        <v>-0.002644631533075223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00186663324138113</v>
+        <v>0.01368492505283824</v>
       </c>
       <c r="C43">
-        <v>-0.003351706046213442</v>
+        <v>-0.003081505591537881</v>
       </c>
       <c r="D43">
-        <v>0.01342091272181388</v>
+        <v>0.00951928197191626</v>
       </c>
       <c r="E43">
-        <v>0.0009619606258033148</v>
+        <v>0.00135870008085287</v>
       </c>
       <c r="F43">
-        <v>-0.03753912612603367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004239634815790418</v>
+      </c>
+      <c r="G43">
+        <v>-0.003836015677002648</v>
+      </c>
+      <c r="H43">
+        <v>-0.009664422344715151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02307013799584308</v>
+        <v>0.01541458229140637</v>
       </c>
       <c r="C44">
-        <v>-0.005358294751806617</v>
+        <v>0.004549520049650318</v>
       </c>
       <c r="D44">
-        <v>0.02236235359722376</v>
+        <v>-0.04000091787171019</v>
       </c>
       <c r="E44">
-        <v>0.009929722340188532</v>
+        <v>-0.008400198505528474</v>
       </c>
       <c r="F44">
-        <v>-0.119061163259134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.001458914861762268</v>
+      </c>
+      <c r="G44">
+        <v>-0.04483320831282751</v>
+      </c>
+      <c r="H44">
+        <v>-0.07106626056334384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01766220842618804</v>
+        <v>0.01245741331790637</v>
       </c>
       <c r="C46">
-        <v>-0.01390980496684982</v>
+        <v>-0.005673427915372152</v>
       </c>
       <c r="D46">
-        <v>0.03015592022721749</v>
+        <v>-0.01520347075490135</v>
       </c>
       <c r="E46">
-        <v>0.03691948296145602</v>
+        <v>-0.0006029069283995855</v>
       </c>
       <c r="F46">
-        <v>-0.0761016230156947</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01050514661762081</v>
+      </c>
+      <c r="G46">
+        <v>-0.04455807330232193</v>
+      </c>
+      <c r="H46">
+        <v>-0.01284727274004685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07423106580158476</v>
+        <v>0.06806590835463269</v>
       </c>
       <c r="C47">
-        <v>-0.05710530707573411</v>
+        <v>0.02478263909869593</v>
       </c>
       <c r="D47">
-        <v>0.006633514266096508</v>
+        <v>-0.05516734796036861</v>
       </c>
       <c r="E47">
-        <v>0.03661267645470478</v>
+        <v>-0.003420224417142439</v>
       </c>
       <c r="F47">
-        <v>-0.0328916326296872</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01289762264939912</v>
+      </c>
+      <c r="G47">
+        <v>0.009554563563488183</v>
+      </c>
+      <c r="H47">
+        <v>0.01447438799200731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01601934923922407</v>
+        <v>0.01837900259454231</v>
       </c>
       <c r="C48">
-        <v>-0.01171728718357804</v>
+        <v>0.004589364518147183</v>
       </c>
       <c r="D48">
-        <v>0.0168876788663584</v>
+        <v>-0.01481047957981436</v>
       </c>
       <c r="E48">
-        <v>0.02017420941802964</v>
+        <v>-0.001054815207074929</v>
       </c>
       <c r="F48">
-        <v>-0.0410743726015405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006344223088071613</v>
+      </c>
+      <c r="G48">
+        <v>-0.02414157364173224</v>
+      </c>
+      <c r="H48">
+        <v>-0.02055947695114578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0793550489161529</v>
+        <v>0.06777416262934639</v>
       </c>
       <c r="C50">
-        <v>-0.04285821308468397</v>
+        <v>0.02223189412151018</v>
       </c>
       <c r="D50">
-        <v>0.02773318221567992</v>
+        <v>-0.05414027942739787</v>
       </c>
       <c r="E50">
-        <v>0.03607049007285042</v>
+        <v>-0.01387686922405976</v>
       </c>
       <c r="F50">
-        <v>-0.03769486880178272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.004517905286979089</v>
+      </c>
+      <c r="G50">
+        <v>-0.005252229456553906</v>
+      </c>
+      <c r="H50">
+        <v>0.00740229406757947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01744777128877966</v>
+        <v>0.0179529516696666</v>
       </c>
       <c r="C51">
-        <v>-0.00591721283281474</v>
+        <v>-0.001527134613247856</v>
       </c>
       <c r="D51">
-        <v>-0.001537505960802782</v>
+        <v>-0.009860744808483207</v>
       </c>
       <c r="E51">
-        <v>-0.006413340302301009</v>
+        <v>-0.007917914553589872</v>
       </c>
       <c r="F51">
-        <v>-0.1004502853387818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.003198574997515415</v>
+      </c>
+      <c r="G51">
+        <v>-0.03945262487218822</v>
+      </c>
+      <c r="H51">
+        <v>-0.05071627749749441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0810366647040628</v>
+        <v>0.08090728950301203</v>
       </c>
       <c r="C53">
-        <v>-0.06266467564169444</v>
+        <v>0.03166400336664969</v>
       </c>
       <c r="D53">
-        <v>0.009865701279178624</v>
+        <v>-0.09284372551498868</v>
       </c>
       <c r="E53">
-        <v>0.05487069685599796</v>
+        <v>-0.005756537020413209</v>
       </c>
       <c r="F53">
-        <v>0.02745248635911086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02908235368892189</v>
+      </c>
+      <c r="G53">
+        <v>0.035983135594993</v>
+      </c>
+      <c r="H53">
+        <v>0.02423784605828075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01877405923129865</v>
+        <v>0.02776590627291911</v>
       </c>
       <c r="C54">
-        <v>-0.001362558717420918</v>
+        <v>0.007629840140429073</v>
       </c>
       <c r="D54">
-        <v>0.005818544761754601</v>
+        <v>0.01000374962228192</v>
       </c>
       <c r="E54">
-        <v>0.02532367516896984</v>
+        <v>-0.007209012672299696</v>
       </c>
       <c r="F54">
-        <v>-0.04692999905467467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.004573200404394059</v>
+      </c>
+      <c r="G54">
+        <v>-0.039095455012567</v>
+      </c>
+      <c r="H54">
+        <v>-0.006358635434715559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08571065589471157</v>
+        <v>0.06607849351414607</v>
       </c>
       <c r="C55">
-        <v>-0.05310831027986223</v>
+        <v>0.02838827250349224</v>
       </c>
       <c r="D55">
-        <v>0.0187498184760525</v>
+        <v>-0.08756513455038492</v>
       </c>
       <c r="E55">
-        <v>0.05839040057874231</v>
+        <v>-0.01302137105655451</v>
       </c>
       <c r="F55">
-        <v>0.02412147506506927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02070010391349912</v>
+      </c>
+      <c r="G55">
+        <v>0.01459321631227765</v>
+      </c>
+      <c r="H55">
+        <v>0.03467562541791183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1165341973393676</v>
+        <v>0.1142785215733531</v>
       </c>
       <c r="C56">
-        <v>-0.09134200470517893</v>
+        <v>0.04825987845213996</v>
       </c>
       <c r="D56">
-        <v>-0.02426811572155136</v>
+        <v>-0.1135686932017662</v>
       </c>
       <c r="E56">
-        <v>0.0898585593916936</v>
+        <v>-0.004688132453671172</v>
       </c>
       <c r="F56">
-        <v>0.05727773742185981</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05378865960377381</v>
+      </c>
+      <c r="G56">
+        <v>0.06901948480969949</v>
+      </c>
+      <c r="H56">
+        <v>0.05221041108744266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03448603554665591</v>
+        <v>0.03300553867913972</v>
       </c>
       <c r="C57">
-        <v>-0.03991948112272205</v>
+        <v>-0.01316544126142953</v>
       </c>
       <c r="D57">
-        <v>0.01403231844202815</v>
+        <v>-0.03490300061426076</v>
       </c>
       <c r="E57">
-        <v>-0.001856432895455194</v>
+        <v>0.01042454398819141</v>
       </c>
       <c r="F57">
-        <v>-0.05528400252676084</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.005965151653783165</v>
+      </c>
+      <c r="G57">
+        <v>-0.07178903256242895</v>
+      </c>
+      <c r="H57">
+        <v>-0.05056322898684478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1312761609786691</v>
+        <v>0.1360947327844929</v>
       </c>
       <c r="C58">
-        <v>-0.214694462005916</v>
+        <v>0.04103113218545838</v>
       </c>
       <c r="D58">
-        <v>0.1210413923324114</v>
+        <v>-0.1643061502390178</v>
       </c>
       <c r="E58">
-        <v>0.06834214749520837</v>
+        <v>0.2276457301509905</v>
       </c>
       <c r="F58">
-        <v>-0.36228179257349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07985255701389633</v>
+      </c>
+      <c r="G58">
+        <v>-0.7921108032976871</v>
+      </c>
+      <c r="H58">
+        <v>0.4346369611806978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0415318606839935</v>
+        <v>0.1831515567089119</v>
       </c>
       <c r="C59">
-        <v>-0.03219500416975485</v>
+        <v>0.005236384020479818</v>
       </c>
       <c r="D59">
-        <v>-0.1428599691130342</v>
+        <v>0.2031921752593353</v>
       </c>
       <c r="E59">
-        <v>-0.130669900551119</v>
+        <v>0.0066787719034227</v>
       </c>
       <c r="F59">
-        <v>-0.07753491472084198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.001180519735383229</v>
+      </c>
+      <c r="G59">
+        <v>-0.01839873289763777</v>
+      </c>
+      <c r="H59">
+        <v>-0.02704741067955547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1101861896896195</v>
+        <v>0.1968959940244316</v>
       </c>
       <c r="C60">
-        <v>-0.1272243038735212</v>
+        <v>0.02372161264341866</v>
       </c>
       <c r="D60">
-        <v>0.007323222674828043</v>
+        <v>-0.03300758830074475</v>
       </c>
       <c r="E60">
-        <v>-0.03960192690164426</v>
+        <v>0.05855482165567708</v>
       </c>
       <c r="F60">
-        <v>-0.184677816670554</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05219459095697886</v>
+      </c>
+      <c r="G60">
+        <v>-0.03944254274355332</v>
+      </c>
+      <c r="H60">
+        <v>-0.359159531285961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02119829254797053</v>
+        <v>0.01891806394996847</v>
       </c>
       <c r="C61">
-        <v>-0.01411384547289256</v>
+        <v>0.009139677173354684</v>
       </c>
       <c r="D61">
-        <v>0.02882488637822802</v>
+        <v>-0.05696328424494792</v>
       </c>
       <c r="E61">
-        <v>0.03431013576435806</v>
+        <v>-0.001916410608498978</v>
       </c>
       <c r="F61">
-        <v>-0.03545626608740624</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02074258461126504</v>
+      </c>
+      <c r="G61">
+        <v>-0.02769349962627973</v>
+      </c>
+      <c r="H61">
+        <v>-0.0587297615621863</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009627900408952972</v>
+        <v>0.009829238290784791</v>
       </c>
       <c r="C63">
-        <v>-0.007055620463882542</v>
+        <v>-0.002158552375409115</v>
       </c>
       <c r="D63">
-        <v>0.02528026024686559</v>
+        <v>-0.02405187401666602</v>
       </c>
       <c r="E63">
-        <v>0.02676835949138303</v>
+        <v>-0.004388794592393053</v>
       </c>
       <c r="F63">
-        <v>-0.01417419273312859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01054854298766918</v>
+      </c>
+      <c r="G63">
+        <v>-0.01949733144397345</v>
+      </c>
+      <c r="H63">
+        <v>-0.01609996815169983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03814383956381996</v>
+        <v>0.03669993205467965</v>
       </c>
       <c r="C64">
-        <v>-0.008752328202603599</v>
+        <v>0.008554642131205121</v>
       </c>
       <c r="D64">
-        <v>0.01664337358285434</v>
+        <v>-0.04343973057111719</v>
       </c>
       <c r="E64">
-        <v>0.04132122374764857</v>
+        <v>-0.01202438783987207</v>
       </c>
       <c r="F64">
-        <v>-0.03719468009777722</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.002852601178412294</v>
+      </c>
+      <c r="G64">
+        <v>-0.007597358403960265</v>
+      </c>
+      <c r="H64">
+        <v>-0.04590727604572444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03485157972801057</v>
+        <v>0.03967721584812892</v>
       </c>
       <c r="C65">
-        <v>-0.01896839279814054</v>
+        <v>0.001283704465707706</v>
       </c>
       <c r="D65">
-        <v>0.0139240521270478</v>
+        <v>-0.07034557361062194</v>
       </c>
       <c r="E65">
-        <v>0.02995195323140483</v>
+        <v>-0.00479273108939384</v>
       </c>
       <c r="F65">
-        <v>-0.009310254766187338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03878806102581419</v>
+      </c>
+      <c r="G65">
+        <v>0.001676437134545283</v>
+      </c>
+      <c r="H65">
+        <v>-0.07537584550528328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02721232548633042</v>
+        <v>0.01798707968122724</v>
       </c>
       <c r="C66">
-        <v>-0.03596594595993937</v>
+        <v>0.0125181571040776</v>
       </c>
       <c r="D66">
-        <v>0.035014628120288</v>
+        <v>-0.111974288999663</v>
       </c>
       <c r="E66">
-        <v>0.06717158107490934</v>
+        <v>0.01151685072516158</v>
       </c>
       <c r="F66">
-        <v>-0.05733330984547558</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03816545625165679</v>
+      </c>
+      <c r="G66">
+        <v>-0.03965630176270352</v>
+      </c>
+      <c r="H66">
+        <v>-0.08152549935117749</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01106608804626266</v>
+        <v>0.04629717363689446</v>
       </c>
       <c r="C67">
-        <v>-0.01425698999415833</v>
+        <v>0.01692763721965373</v>
       </c>
       <c r="D67">
-        <v>0.003271416424121468</v>
+        <v>-0.01824508591114258</v>
       </c>
       <c r="E67">
-        <v>-0.02116769262190641</v>
+        <v>0.004263824816645441</v>
       </c>
       <c r="F67">
-        <v>-0.03406180349914872</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01838311975197402</v>
+      </c>
+      <c r="G67">
+        <v>-0.01713449865656489</v>
+      </c>
+      <c r="H67">
+        <v>-0.04450699343824684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06001521937679324</v>
+        <v>0.1816243978887249</v>
       </c>
       <c r="C68">
-        <v>-0.03173427273245247</v>
+        <v>-0.01789427030926814</v>
       </c>
       <c r="D68">
-        <v>-0.1565906228812079</v>
+        <v>0.224121218407601</v>
       </c>
       <c r="E68">
-        <v>-0.143000287533244</v>
+        <v>0.004924608587952178</v>
       </c>
       <c r="F68">
-        <v>-0.05456347435904955</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0391942790414629</v>
+      </c>
+      <c r="G68">
+        <v>-0.02693724667231415</v>
+      </c>
+      <c r="H68">
+        <v>0.05195378050376233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05338943458154285</v>
+        <v>0.05985259633660346</v>
       </c>
       <c r="C69">
-        <v>-0.0464041410816466</v>
+        <v>0.02669613831246628</v>
       </c>
       <c r="D69">
-        <v>-0.003287751967446618</v>
+        <v>-0.05054166670193588</v>
       </c>
       <c r="E69">
-        <v>0.04282394412534752</v>
+        <v>-0.0007305598055811364</v>
       </c>
       <c r="F69">
-        <v>-0.02967177041430218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02896235793229886</v>
+      </c>
+      <c r="G69">
+        <v>0.008273088549175699</v>
+      </c>
+      <c r="H69">
+        <v>-0.0136093879434161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06031557633243474</v>
+        <v>0.1659680545414235</v>
       </c>
       <c r="C71">
-        <v>-0.04015322087880159</v>
+        <v>-0.006175605126618308</v>
       </c>
       <c r="D71">
-        <v>-0.1480407419790467</v>
+        <v>0.1834058696047021</v>
       </c>
       <c r="E71">
-        <v>-0.1909628155820309</v>
+        <v>0.01113996413578682</v>
       </c>
       <c r="F71">
-        <v>-0.05482137114021402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04801047085758648</v>
+      </c>
+      <c r="G71">
+        <v>-0.03139881924294959</v>
+      </c>
+      <c r="H71">
+        <v>0.0207545530006579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0903967824518957</v>
+        <v>0.07196238552330045</v>
       </c>
       <c r="C72">
-        <v>-0.08365540373914176</v>
+        <v>0.0351795968243957</v>
       </c>
       <c r="D72">
-        <v>-0.003719270456984055</v>
+        <v>-0.08539872751977336</v>
       </c>
       <c r="E72">
-        <v>0.07499261460146876</v>
+        <v>0.01609903369550854</v>
       </c>
       <c r="F72">
-        <v>-0.07406502278250968</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06520788938132455</v>
+      </c>
+      <c r="G72">
+        <v>-0.02461115393600037</v>
+      </c>
+      <c r="H72">
+        <v>-0.1291471863353841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1478210789880581</v>
+        <v>0.2551123920229021</v>
       </c>
       <c r="C73">
-        <v>-0.2043239259424255</v>
+        <v>0.03457603005753494</v>
       </c>
       <c r="D73">
-        <v>-0.007843689870405771</v>
+        <v>-0.1077579677829565</v>
       </c>
       <c r="E73">
-        <v>-0.1056235551472173</v>
+        <v>0.09937795419156262</v>
       </c>
       <c r="F73">
-        <v>-0.2326130486053743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.05830927562161016</v>
+      </c>
+      <c r="G73">
+        <v>-0.05826228399969308</v>
+      </c>
+      <c r="H73">
+        <v>-0.4536460867972977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1091045362425968</v>
+        <v>0.1119944464059712</v>
       </c>
       <c r="C74">
-        <v>-0.08455308022916433</v>
+        <v>0.04772255109066693</v>
       </c>
       <c r="D74">
-        <v>-0.00122109431733861</v>
+        <v>-0.1168593104332389</v>
       </c>
       <c r="E74">
-        <v>0.05584738063135094</v>
+        <v>-0.009207201132697383</v>
       </c>
       <c r="F74">
-        <v>0.06970635428461247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03810644336444718</v>
+      </c>
+      <c r="G74">
+        <v>0.05235869646885341</v>
+      </c>
+      <c r="H74">
+        <v>0.01571159065441069</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1761779910952536</v>
+        <v>0.2191019546678784</v>
       </c>
       <c r="C75">
-        <v>-0.1585746324723263</v>
+        <v>0.0888248834538343</v>
       </c>
       <c r="D75">
-        <v>-0.05556454356735184</v>
+        <v>-0.179831005256569</v>
       </c>
       <c r="E75">
-        <v>0.1363597048280902</v>
+        <v>0.00700175147143844</v>
       </c>
       <c r="F75">
-        <v>0.1017337914058828</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09711258120396435</v>
+      </c>
+      <c r="G75">
+        <v>0.1218342880174363</v>
+      </c>
+      <c r="H75">
+        <v>0.110228243186115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2385049955473524</v>
+        <v>0.1779910054887787</v>
       </c>
       <c r="C76">
-        <v>-0.156828719967804</v>
+        <v>0.08155770083171932</v>
       </c>
       <c r="D76">
-        <v>-0.07382012656870598</v>
+        <v>-0.181008750723802</v>
       </c>
       <c r="E76">
-        <v>0.1851971520742668</v>
+        <v>-0.03993044912976088</v>
       </c>
       <c r="F76">
-        <v>0.1769119419828759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09086572623790772</v>
+      </c>
+      <c r="G76">
+        <v>0.1173176192343769</v>
+      </c>
+      <c r="H76">
+        <v>0.106383631680883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09423491572566682</v>
+        <v>0.06296870067384147</v>
       </c>
       <c r="C77">
-        <v>-0.0919061995359817</v>
+        <v>0.009612571638449254</v>
       </c>
       <c r="D77">
-        <v>0.1097130543254968</v>
+        <v>-0.08511495725051667</v>
       </c>
       <c r="E77">
-        <v>0.03862801479980835</v>
+        <v>0.01783851252646707</v>
       </c>
       <c r="F77">
-        <v>-0.1704028342466043</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01678230775514527</v>
+      </c>
+      <c r="G77">
+        <v>-0.07904407291096748</v>
+      </c>
+      <c r="H77">
+        <v>-0.02095082948655793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0627381394636128</v>
+        <v>0.03395748196145228</v>
       </c>
       <c r="C78">
-        <v>-0.04683641380094995</v>
+        <v>0.01150104601071226</v>
       </c>
       <c r="D78">
-        <v>0.06988124414521105</v>
+        <v>-0.07098292080043302</v>
       </c>
       <c r="E78">
-        <v>0.06871414166415686</v>
+        <v>-0.001092236869125344</v>
       </c>
       <c r="F78">
-        <v>-0.1063576357184276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01883120793072928</v>
+      </c>
+      <c r="G78">
+        <v>-0.06822603444384055</v>
+      </c>
+      <c r="H78">
+        <v>-0.08821598168045562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.668071014366348</v>
+        <v>0.126725733944763</v>
       </c>
       <c r="C80">
-        <v>0.7243667491755572</v>
+        <v>0.02935279734642267</v>
       </c>
       <c r="D80">
-        <v>0.07073405442425554</v>
+        <v>-0.1003079113271004</v>
       </c>
       <c r="E80">
-        <v>-0.01814173855037386</v>
+        <v>-0.9294659637474553</v>
       </c>
       <c r="F80">
-        <v>-0.03595791978747703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2255989977639874</v>
+      </c>
+      <c r="G80">
+        <v>-0.166359427767222</v>
+      </c>
+      <c r="H80">
+        <v>0.00326972139289092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1501648641896367</v>
+        <v>0.1461544617958197</v>
       </c>
       <c r="C81">
-        <v>-0.1142087499938452</v>
+        <v>0.05820736189882821</v>
       </c>
       <c r="D81">
-        <v>-0.06588304102467274</v>
+        <v>-0.1190527747463766</v>
       </c>
       <c r="E81">
-        <v>0.1176696157022322</v>
+        <v>-0.01237121601175326</v>
       </c>
       <c r="F81">
-        <v>0.1011646126255998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06695238930010651</v>
+      </c>
+      <c r="G81">
+        <v>0.0787315464372977</v>
+      </c>
+      <c r="H81">
+        <v>0.07038599151786118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02493323970444008</v>
+        <v>0.0304732141601421</v>
       </c>
       <c r="C83">
-        <v>-0.03034969874575448</v>
+        <v>0.004530866675378576</v>
       </c>
       <c r="D83">
-        <v>0.02430280125088133</v>
+        <v>-0.02529738202972368</v>
       </c>
       <c r="E83">
-        <v>0.008337132384514527</v>
+        <v>0.009075344804929227</v>
       </c>
       <c r="F83">
-        <v>-0.06968963526780639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.008239264608349964</v>
+      </c>
+      <c r="G83">
+        <v>-0.04675277354865794</v>
+      </c>
+      <c r="H83">
+        <v>-0.0400425716449546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2100898978027288</v>
+        <v>0.199473334256058</v>
       </c>
       <c r="C85">
-        <v>-0.1692714878283635</v>
+        <v>0.07265371528020101</v>
       </c>
       <c r="D85">
-        <v>-0.0537602203320161</v>
+        <v>-0.1898289451649089</v>
       </c>
       <c r="E85">
-        <v>0.1376743280488063</v>
+        <v>0.003952841852882965</v>
       </c>
       <c r="F85">
-        <v>0.125154214841634</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08061945659971642</v>
+      </c>
+      <c r="G85">
+        <v>0.1361746325986866</v>
+      </c>
+      <c r="H85">
+        <v>0.06981991718200299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.008004299515181208</v>
+        <v>0.01822771177542856</v>
       </c>
       <c r="C86">
-        <v>-0.005780677839770145</v>
+        <v>0.00130545399222502</v>
       </c>
       <c r="D86">
-        <v>0.04458868018082426</v>
+        <v>-0.03959285123756719</v>
       </c>
       <c r="E86">
-        <v>0.02126662280938909</v>
+        <v>0.001056542504393624</v>
       </c>
       <c r="F86">
-        <v>-0.07715772958261484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.006849554165744919</v>
+      </c>
+      <c r="G86">
+        <v>-0.05623619141861787</v>
+      </c>
+      <c r="H86">
+        <v>-0.1025777629793194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03908010052840728</v>
+        <v>0.02077714479832848</v>
       </c>
       <c r="C87">
-        <v>-0.02145078632509337</v>
+        <v>0.002371325428702789</v>
       </c>
       <c r="D87">
-        <v>0.02760788475192951</v>
+        <v>-0.0495743832469429</v>
       </c>
       <c r="E87">
-        <v>0.006600068623654699</v>
+        <v>-0.002778382425597707</v>
       </c>
       <c r="F87">
-        <v>-0.1171496528346328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.003223863655143714</v>
+      </c>
+      <c r="G87">
+        <v>-0.08417599885304922</v>
+      </c>
+      <c r="H87">
+        <v>-0.0823026620611526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01639828912146535</v>
+        <v>0.03777264564965953</v>
       </c>
       <c r="C88">
-        <v>0.001719368505905846</v>
+        <v>-0.01198900688342946</v>
       </c>
       <c r="D88">
-        <v>-0.01057254930278999</v>
+        <v>-0.02300565370175793</v>
       </c>
       <c r="E88">
-        <v>0.01260861669895143</v>
+        <v>-0.01498183452395789</v>
       </c>
       <c r="F88">
-        <v>0.0003649177088699036</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01793837509929918</v>
+      </c>
+      <c r="G88">
+        <v>0.0008689748125425754</v>
+      </c>
+      <c r="H88">
+        <v>-0.01516731452438813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08113853382619114</v>
+        <v>0.2855405272015989</v>
       </c>
       <c r="C89">
-        <v>-0.05754208924228677</v>
+        <v>-0.01339600327628788</v>
       </c>
       <c r="D89">
-        <v>-0.2460257820288828</v>
+        <v>0.3259005717379217</v>
       </c>
       <c r="E89">
-        <v>-0.2373545596821623</v>
+        <v>0.01286471765078691</v>
       </c>
       <c r="F89">
-        <v>-0.08839812149679775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0265319187875547</v>
+      </c>
+      <c r="G89">
+        <v>0.0111897144793721</v>
+      </c>
+      <c r="H89">
+        <v>-0.01568105436028482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07618406461716688</v>
+        <v>0.2339546657151726</v>
       </c>
       <c r="C90">
-        <v>-0.03103409744310698</v>
+        <v>-0.01282408768995338</v>
       </c>
       <c r="D90">
-        <v>-0.2580457385838472</v>
+        <v>0.2954761135288985</v>
       </c>
       <c r="E90">
-        <v>-0.2583464091179513</v>
+        <v>0.001373073822342437</v>
       </c>
       <c r="F90">
-        <v>-0.05142631190581722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05300461213581659</v>
+      </c>
+      <c r="G90">
+        <v>0.009540393752437119</v>
+      </c>
+      <c r="H90">
+        <v>0.04416538101363706</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2406935625257534</v>
+        <v>0.2179975695254501</v>
       </c>
       <c r="C91">
-        <v>-0.209595329526212</v>
+        <v>0.0860137930937335</v>
       </c>
       <c r="D91">
-        <v>-0.05692079502816778</v>
+        <v>-0.1708677547303497</v>
       </c>
       <c r="E91">
-        <v>0.1538244640504767</v>
+        <v>0.008161927347457928</v>
       </c>
       <c r="F91">
-        <v>0.2313131338643758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08483841718129495</v>
+      </c>
+      <c r="G91">
+        <v>0.1433154567301483</v>
+      </c>
+      <c r="H91">
+        <v>0.14650313396616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1417675815627402</v>
+        <v>0.2725258797065364</v>
       </c>
       <c r="C92">
-        <v>-0.08090209018860817</v>
+        <v>0.05180427387739401</v>
       </c>
       <c r="D92">
-        <v>-0.4053037171780237</v>
+        <v>0.214349621595786</v>
       </c>
       <c r="E92">
-        <v>-0.1672935826213565</v>
+        <v>-0.01111284480021872</v>
       </c>
       <c r="F92">
-        <v>0.08949778891647762</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01653140498222471</v>
+      </c>
+      <c r="G92">
+        <v>-0.02064171947604829</v>
+      </c>
+      <c r="H92">
+        <v>0.116269560100531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06440656792034345</v>
+        <v>0.262458937473074</v>
       </c>
       <c r="C93">
-        <v>-0.06124029161841107</v>
+        <v>-0.00333464157265179</v>
       </c>
       <c r="D93">
-        <v>-0.3163998420207612</v>
+        <v>0.304546805980593</v>
       </c>
       <c r="E93">
-        <v>-0.3361292868910906</v>
+        <v>0.02936004625952283</v>
       </c>
       <c r="F93">
-        <v>-0.01657150480604035</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05261127491453749</v>
+      </c>
+      <c r="G93">
+        <v>0.006830348153886963</v>
+      </c>
+      <c r="H93">
+        <v>-0.01051572779461161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.231113702981906</v>
+        <v>0.2687014108310776</v>
       </c>
       <c r="C94">
-        <v>-0.2157953966780091</v>
+        <v>0.08162072781588073</v>
       </c>
       <c r="D94">
-        <v>-0.1325240374726493</v>
+        <v>-0.1729661980756723</v>
       </c>
       <c r="E94">
-        <v>0.2151827237732966</v>
+        <v>0.01831861248837524</v>
       </c>
       <c r="F94">
-        <v>0.1745266551711138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1937378730065472</v>
+      </c>
+      <c r="G94">
+        <v>0.266005070997539</v>
+      </c>
+      <c r="H94">
+        <v>0.3431691712202308</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.006294688048259602</v>
+        <v>0.04590288439293038</v>
       </c>
       <c r="C95">
-        <v>-0.08714184601283814</v>
+        <v>0.02971962798565314</v>
       </c>
       <c r="D95">
-        <v>0.06159383662520977</v>
+        <v>-0.08925735728387869</v>
       </c>
       <c r="E95">
-        <v>0.03376115145045437</v>
+        <v>0.08230633266286802</v>
       </c>
       <c r="F95">
-        <v>-0.05651082040182966</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.008624176272805727</v>
+      </c>
+      <c r="G95">
+        <v>-0.04738265602593588</v>
+      </c>
+      <c r="H95">
+        <v>-0.05085791844097277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1173168608428548</v>
+        <v>0.1818640144119798</v>
       </c>
       <c r="C98">
-        <v>-0.1274852738102461</v>
+        <v>0.05119288657372621</v>
       </c>
       <c r="D98">
-        <v>0.00217865861487283</v>
+        <v>-0.0509608693555435</v>
       </c>
       <c r="E98">
-        <v>-0.09137562235370328</v>
+        <v>0.06309480430302426</v>
       </c>
       <c r="F98">
-        <v>-0.1430212903124108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.006791776650473273</v>
+      </c>
+      <c r="G98">
+        <v>-0.0931792219913172</v>
+      </c>
+      <c r="H98">
+        <v>-0.3259184963581264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0117074083868187</v>
+        <v>0.01445175804109824</v>
       </c>
       <c r="C101">
-        <v>0.0001422360232745139</v>
+        <v>-0.0006240801025974519</v>
       </c>
       <c r="D101">
-        <v>0.03647348022701299</v>
+        <v>-0.01733855159254678</v>
       </c>
       <c r="E101">
-        <v>0.06280956915982801</v>
+        <v>-0.003741523535282641</v>
       </c>
       <c r="F101">
-        <v>-0.1663841894854352</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01697870307481895</v>
+      </c>
+      <c r="G101">
+        <v>-0.1024796287943587</v>
+      </c>
+      <c r="H101">
+        <v>0.01911294150160322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09560950478630648</v>
+        <v>0.09746841864020127</v>
       </c>
       <c r="C102">
-        <v>-0.07476022509683521</v>
+        <v>0.02837951895187779</v>
       </c>
       <c r="D102">
-        <v>-0.02169741176833392</v>
+        <v>-0.09151505136537036</v>
       </c>
       <c r="E102">
-        <v>0.08073666448970135</v>
+        <v>-0.003582399897107452</v>
       </c>
       <c r="F102">
-        <v>0.07748576817698673</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04749451668573272</v>
+      </c>
+      <c r="G102">
+        <v>0.06890584321081238</v>
+      </c>
+      <c r="H102">
+        <v>0.05411261436385418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04001050800277133</v>
+        <v>0.01440130398454196</v>
       </c>
       <c r="C103">
-        <v>-0.018562542737221</v>
+        <v>0.005320269483054602</v>
       </c>
       <c r="D103">
-        <v>-0.001201122045554319</v>
+        <v>-0.01642709982724296</v>
       </c>
       <c r="E103">
-        <v>0.043706753645584</v>
+        <v>-0.01074061443405437</v>
       </c>
       <c r="F103">
-        <v>-0.008833956293824354</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.007283738359054194</v>
+      </c>
+      <c r="G103">
+        <v>-0.002704942378028732</v>
+      </c>
+      <c r="H103">
+        <v>0.0100099187551013</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1577048950658894</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9651898856102178</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1194896652676301</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.0283545899227061</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1305730123386031</v>
+      </c>
+      <c r="G104">
+        <v>0.01164694738663056</v>
+      </c>
+      <c r="H104">
+        <v>0.04679366542816515</v>
       </c>
     </row>
   </sheetData>
